--- a/Documentos/Rubrica1/ModeloLogico/empleados.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico/empleados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel\Documents\Drive\Proyectos\BDI\BD1Project2019\Documentos\Rubrica1\ModeloLogico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D5DA8C4-B532-4694-9877-0D604180E72E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F16D1C-C7E5-45D4-98BE-3EEA72A1A42D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40E4ABA2-08E5-4C77-BE1C-7A0E393F163D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{40E4ABA2-08E5-4C77-BE1C-7A0E393F163D}"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLEADOS" sheetId="2" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>varchar2(20)</t>
   </si>
   <si>
-    <t>check('1','2','3','4')</t>
-  </si>
-  <si>
     <t>check('G','S','D','A')</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>ORGANIGRAMA</t>
   </si>
   <si>
-    <t>check('1','2','3')</t>
-  </si>
-  <si>
     <t>fecha_fin</t>
   </si>
   <si>
@@ -240,13 +234,19 @@
   </si>
   <si>
     <t>EMPLEO</t>
+  </si>
+  <si>
+    <t>check(1,2,3,4)</t>
+  </si>
+  <si>
+    <t>check(1,2,3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial Black"/>
@@ -391,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -423,48 +430,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,48 +792,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499D417C-E6BA-46BF-88F3-AB3FEE75ECD1}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:D74"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="46.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>68</v>
+      <c r="A2" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -843,7 +853,7 @@
       <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
@@ -857,7 +867,7 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
@@ -871,10 +881,10 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -883,7 +893,7 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -908,33 +918,33 @@
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
@@ -946,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
@@ -958,7 +968,7 @@
         <v>3</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
     </row>
@@ -970,17 +980,17 @@
         <v>1</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="20"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="20"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -992,7 +1002,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
@@ -1002,11 +1012,11 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
@@ -1014,25 +1024,25 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1096,7 +1106,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>0</v>
@@ -1111,11 +1121,11 @@
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="8"/>
+      <c r="A25" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1127,12 +1137,12 @@
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="19"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="19"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1180,7 +1190,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="19"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1208,7 +1218,7 @@
     </row>
     <row r="33" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -1223,37 +1233,37 @@
     </row>
     <row r="34" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>51</v>
       </c>
+      <c r="E34" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1266,13 +1276,13 @@
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="12" t="s">
+      <c r="D35" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>4</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -1289,13 +1299,13 @@
     </row>
     <row r="36" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="14"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="11"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1308,9 +1318,9 @@
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
-      <c r="D37" s="17"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="16"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -1321,17 +1331,17 @@
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="12"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1346,20 +1356,20 @@
       <c r="C39" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>23</v>
@@ -1393,7 +1403,7 @@
     </row>
     <row r="42" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -1408,10 +1418,10 @@
         <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>18</v>
@@ -1439,7 +1449,7 @@
     </row>
     <row r="45" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1477,7 +1487,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>10</v>
@@ -1489,25 +1499,25 @@
     </row>
     <row r="49" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="23"/>
+      <c r="A50" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1543,7 +1553,7 @@
     <row r="55" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1553,7 +1563,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -1563,8 +1573,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="10"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -1574,7 +1584,7 @@
     </row>
     <row r="58" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
@@ -1589,16 +1599,16 @@
         <v>21</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>18</v>
@@ -1624,7 +1634,7 @@
     </row>
     <row r="61" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1648,10 +1658,10 @@
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1668,7 +1678,7 @@
         <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>0</v>
@@ -1896,18 +1906,19 @@
     <row r="81" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A66:H66"/>
-    <mergeCell ref="A74:D74"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="A74:D74"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Documentos/Rubrica1/ModeloLogico/empleados.xlsx
+++ b/Documentos/Rubrica1/ModeloLogico/empleados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ezequiel\Documents\Drive\Proyectos\BDI\BD1Project2019\Documentos\Rubrica1\ModeloLogico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564E2FA-1F0F-4CD6-8CEC-2D7CF2C50865}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA9C1F0-BDE2-427B-A531-793999B80CA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{40E4ABA2-08E5-4C77-BE1C-7A0E393F163D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{40E4ABA2-08E5-4C77-BE1C-7A0E393F163D}"/>
   </bookViews>
   <sheets>
     <sheet name="EMPLEADO" sheetId="3" r:id="rId1"/>
@@ -452,32 +452,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1E0366-24A1-4132-8ED3-C17BC3F70452}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -805,19 +805,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -992,12 +992,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1017,7 +1017,7 @@
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1031,7 +1031,7 @@
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1088,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA56E5D-C4AA-4201-9AB9-3752B87A1321}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1098,12 +1098,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1188,10 +1188,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1260,12 +1260,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1354,16 +1354,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -1496,14 +1496,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1616,14 +1616,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1689,11 +1689,11 @@
     </row>
     <row r="6" spans="1:6" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="18"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
@@ -1740,13 +1740,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1853,12 +1853,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
